--- a/Gant_Chart_Assessment_2_Group_1.xlsx
+++ b/Gant_Chart_Assessment_2_Group_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Documents\GitHub\MANAGING-SOFTWARE-DEVELOPMENT-ISYS2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TERM_4_GROUP1\MANAGING-SOFTWARE-DEVELOPMENT-ISYS2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D9C07-FBB8-4C83-99A6-83121E934A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS with Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -253,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -332,7 +333,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +478,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -602,9 +609,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,7 +641,7 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,16 +671,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,9 +686,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -706,7 +707,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +728,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -758,7 +759,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,19 +795,22 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1023,7 +1027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1032,7 +1036,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35:AL35"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1047,87 +1051,86 @@
     <col min="70" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" s="66" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="2:68" s="64" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
     </row>
     <row r="2" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="21"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -1157,19 +1160,17 @@
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
-      <c r="AM2" s="21"/>
     </row>
     <row r="3" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="21"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -1199,292 +1200,291 @@
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
-      <c r="AM3" s="21"/>
     </row>
     <row r="4" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="48" t="s">
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="50" t="s">
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="52"/>
-    </row>
-    <row r="6" spans="2:68" s="24" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="50"/>
+    </row>
+    <row r="6" spans="2:68" s="23" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
     </row>
     <row r="7" spans="2:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="54" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="54" t="s">
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="57" t="s">
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="58" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="58" t="s">
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="60" t="s">
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="60" t="s">
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="60" t="s">
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="62" t="s">
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="59"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="62" t="s">
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="62" t="s">
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
-      <c r="BP7" s="64"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="62"/>
     </row>
     <row r="8" spans="2:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="43" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="N8" s="20" t="s">
@@ -1517,150 +1517,150 @@
       <c r="W8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="32" t="s">
+      <c r="X8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="32" t="s">
+      <c r="Y8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="32" t="s">
+      <c r="Z8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="32" t="s">
+      <c r="AA8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AC8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AD8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AE8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AF8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AG8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="32" t="s">
+      <c r="AI8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="32" t="s">
+      <c r="AJ8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="32" t="s">
+      <c r="AK8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AL8" s="32" t="s">
+      <c r="AL8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AM8" s="33" t="s">
+      <c r="AM8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AN8" s="33" t="s">
+      <c r="AN8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AO8" s="33" t="s">
+      <c r="AO8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AP8" s="33" t="s">
+      <c r="AP8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AQ8" s="33" t="s">
+      <c r="AQ8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AR8" s="33" t="s">
+      <c r="AR8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS8" s="33" t="s">
+      <c r="AS8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AT8" s="33" t="s">
+      <c r="AT8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AU8" s="33" t="s">
+      <c r="AU8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AV8" s="33" t="s">
+      <c r="AV8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AW8" s="33" t="s">
+      <c r="AW8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AX8" s="33" t="s">
+      <c r="AX8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AY8" s="33" t="s">
+      <c r="AY8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AZ8" s="33" t="s">
+      <c r="AZ8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BA8" s="33" t="s">
+      <c r="BA8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BB8" s="34" t="s">
+      <c r="BB8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BD8" s="34" t="s">
+      <c r="BD8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BE8" s="34" t="s">
+      <c r="BE8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BF8" s="34" t="s">
+      <c r="BF8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="34" t="s">
+      <c r="BG8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="BH8" s="34" t="s">
+      <c r="BH8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BI8" s="34" t="s">
+      <c r="BI8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BJ8" s="34" t="s">
+      <c r="BJ8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BK8" s="34" t="s">
+      <c r="BK8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BL8" s="34" t="s">
+      <c r="BL8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="BM8" s="34" t="s">
+      <c r="BM8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BN8" s="34" t="s">
+      <c r="BN8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BO8" s="34" t="s">
+      <c r="BO8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BP8" s="34" t="s">
+      <c r="BP8" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -1727,13 +1727,13 @@
       <c r="BP9" s="3"/>
     </row>
     <row r="10" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="15">
@@ -1752,7 +1752,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1811,13 +1811,13 @@
       <c r="BP10" s="4"/>
     </row>
     <row r="11" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="15">
@@ -1895,13 +1895,13 @@
       <c r="BP11" s="4"/>
     </row>
     <row r="12" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+      <c r="B12" s="38">
         <v>1.2</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="15">
@@ -1979,13 +1979,13 @@
       <c r="BP12" s="4"/>
     </row>
     <row r="13" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <v>1.3</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="15">
@@ -2063,13 +2063,13 @@
       <c r="BP13" s="4"/>
     </row>
     <row r="14" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <v>1.4</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="15">
@@ -2147,13 +2147,13 @@
       <c r="BP14" s="4"/>
     </row>
     <row r="15" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40">
+      <c r="B15" s="38">
         <v>1.5</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="15">
@@ -2231,13 +2231,13 @@
       <c r="BP15" s="4"/>
     </row>
     <row r="16" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40">
+      <c r="B16" s="38">
         <v>1.6</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="15">
@@ -2315,13 +2315,13 @@
       <c r="BP16" s="4"/>
     </row>
     <row r="17" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40">
+      <c r="B17" s="38">
         <v>2</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2388,13 +2388,13 @@
       <c r="BP17" s="3"/>
     </row>
     <row r="18" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="40">
+      <c r="B18" s="38">
         <v>2.1</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="15">
@@ -2472,13 +2472,13 @@
       <c r="BP18" s="4"/>
     </row>
     <row r="19" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="40">
+      <c r="B19" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="15">
@@ -2556,13 +2556,13 @@
       <c r="BP19" s="4"/>
     </row>
     <row r="20" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40">
+      <c r="B20" s="38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="15"/>
@@ -2636,13 +2636,13 @@
       <c r="BP20" s="4"/>
     </row>
     <row r="21" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40">
+      <c r="B21" s="38">
         <v>2.4</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="15"/>
@@ -2716,13 +2716,13 @@
       <c r="BP21" s="4"/>
     </row>
     <row r="22" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40">
+      <c r="B22" s="38">
         <v>3</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -2789,13 +2789,13 @@
       <c r="BP22" s="3"/>
     </row>
     <row r="23" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40">
+      <c r="B23" s="38">
         <v>3.1</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="15"/>
@@ -2869,13 +2869,13 @@
       <c r="BP23" s="4"/>
     </row>
     <row r="24" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40">
+      <c r="B24" s="38">
         <v>3.2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="15"/>
@@ -2949,13 +2949,13 @@
       <c r="BP24" s="4"/>
     </row>
     <row r="25" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="15"/>
@@ -3029,13 +3029,13 @@
       <c r="BP25" s="4"/>
     </row>
     <row r="26" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="15"/>
@@ -3109,13 +3109,13 @@
       <c r="BP26" s="4"/>
     </row>
     <row r="27" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40">
+      <c r="B27" s="38">
         <v>3.3</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="15"/>
@@ -3189,13 +3189,13 @@
       <c r="BP27" s="4"/>
     </row>
     <row r="28" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="15"/>
@@ -3269,13 +3269,13 @@
       <c r="BP28" s="4"/>
     </row>
     <row r="29" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40">
+      <c r="B29" s="38">
         <v>4</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -3342,13 +3342,13 @@
       <c r="BP29" s="3"/>
     </row>
     <row r="30" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="40">
+      <c r="B30" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="15"/>
@@ -3422,13 +3422,13 @@
       <c r="BP30" s="4"/>
     </row>
     <row r="31" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="40">
+      <c r="B31" s="38">
         <v>4.2</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="15"/>
@@ -3502,13 +3502,13 @@
       <c r="BP31" s="4"/>
     </row>
     <row r="32" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40">
+      <c r="B32" s="38">
         <v>4.3</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="15"/>
@@ -3582,13 +3582,13 @@
       <c r="BP32" s="4"/>
     </row>
     <row r="33" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="15"/>
@@ -3663,43 +3663,43 @@
     </row>
     <row r="34" spans="2:68" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="68"/>
-      <c r="AJ35" s="68"/>
-      <c r="AK35" s="68"/>
-      <c r="AL35" s="68"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3749,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3773,87 +3773,86 @@
     <col min="70" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" s="66" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="2:68" s="64" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
     </row>
     <row r="2" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="21"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -3883,19 +3882,17 @@
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
-      <c r="AM2" s="21"/>
     </row>
     <row r="3" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="21"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -3925,292 +3922,291 @@
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
-      <c r="AM3" s="21"/>
     </row>
     <row r="4" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="2:68" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="48" t="s">
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="50" t="s">
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="52"/>
-    </row>
-    <row r="6" spans="2:68" s="24" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="50"/>
+    </row>
+    <row r="6" spans="2:68" s="23" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
     </row>
     <row r="7" spans="2:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="54" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="54" t="s">
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="57" t="s">
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="58" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="58" t="s">
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="60" t="s">
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="60" t="s">
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="60" t="s">
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="62" t="s">
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="59"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="62" t="s">
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="62" t="s">
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
-      <c r="BP7" s="64"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="62"/>
     </row>
     <row r="8" spans="2:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="43" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="N8" s="20" t="s">
@@ -4243,146 +4239,146 @@
       <c r="W8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="32" t="s">
+      <c r="X8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="32" t="s">
+      <c r="Y8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="32" t="s">
+      <c r="Z8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="32" t="s">
+      <c r="AA8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AB8" s="32" t="s">
+      <c r="AB8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AC8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AD8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AE8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AF8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AG8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="32" t="s">
+      <c r="AI8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="32" t="s">
+      <c r="AJ8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="32" t="s">
+      <c r="AK8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AL8" s="32" t="s">
+      <c r="AL8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AM8" s="33" t="s">
+      <c r="AM8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AN8" s="33" t="s">
+      <c r="AN8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AO8" s="33" t="s">
+      <c r="AO8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AP8" s="33" t="s">
+      <c r="AP8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AQ8" s="33" t="s">
+      <c r="AQ8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AR8" s="33" t="s">
+      <c r="AR8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS8" s="33" t="s">
+      <c r="AS8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AT8" s="33" t="s">
+      <c r="AT8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AU8" s="33" t="s">
+      <c r="AU8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AV8" s="33" t="s">
+      <c r="AV8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AW8" s="33" t="s">
+      <c r="AW8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AX8" s="33" t="s">
+      <c r="AX8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AY8" s="33" t="s">
+      <c r="AY8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AZ8" s="33" t="s">
+      <c r="AZ8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BA8" s="33" t="s">
+      <c r="BA8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BB8" s="34" t="s">
+      <c r="BB8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BD8" s="34" t="s">
+      <c r="BD8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BE8" s="34" t="s">
+      <c r="BE8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BF8" s="34" t="s">
+      <c r="BF8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="34" t="s">
+      <c r="BG8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="BH8" s="34" t="s">
+      <c r="BH8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BI8" s="34" t="s">
+      <c r="BI8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BJ8" s="34" t="s">
+      <c r="BJ8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BK8" s="34" t="s">
+      <c r="BK8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BL8" s="34" t="s">
+      <c r="BL8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="BM8" s="34" t="s">
+      <c r="BM8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BN8" s="34" t="s">
+      <c r="BN8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BO8" s="34" t="s">
+      <c r="BO8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BP8" s="34" t="s">
+      <c r="BP8" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -4449,9 +4445,9 @@
       <c r="BP9" s="3"/>
     </row>
     <row r="10" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
@@ -4520,9 +4516,9 @@
       <c r="BP10" s="4"/>
     </row>
     <row r="11" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
@@ -4591,9 +4587,9 @@
       <c r="BP11" s="4"/>
     </row>
     <row r="12" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -4662,9 +4658,9 @@
       <c r="BP12" s="4"/>
     </row>
     <row r="13" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -4733,9 +4729,9 @@
       <c r="BP13" s="4"/>
     </row>
     <row r="14" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
@@ -4804,9 +4800,9 @@
       <c r="BP14" s="4"/>
     </row>
     <row r="15" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
@@ -4875,9 +4871,9 @@
       <c r="BP15" s="4"/>
     </row>
     <row r="16" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
@@ -4946,9 +4942,9 @@
       <c r="BP16" s="4"/>
     </row>
     <row r="17" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -5015,9 +5011,9 @@
       <c r="BP17" s="3"/>
     </row>
     <row r="18" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
@@ -5086,9 +5082,9 @@
       <c r="BP18" s="4"/>
     </row>
     <row r="19" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
@@ -5157,9 +5153,9 @@
       <c r="BP19" s="4"/>
     </row>
     <row r="20" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
@@ -5228,9 +5224,9 @@
       <c r="BP20" s="4"/>
     </row>
     <row r="21" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
@@ -5299,9 +5295,9 @@
       <c r="BP21" s="4"/>
     </row>
     <row r="22" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -5368,9 +5364,9 @@
       <c r="BP22" s="3"/>
     </row>
     <row r="23" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
@@ -5439,9 +5435,9 @@
       <c r="BP23" s="4"/>
     </row>
     <row r="24" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
@@ -5510,9 +5506,9 @@
       <c r="BP24" s="4"/>
     </row>
     <row r="25" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
@@ -5581,9 +5577,9 @@
       <c r="BP25" s="4"/>
     </row>
     <row r="26" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
@@ -5652,9 +5648,9 @@
       <c r="BP26" s="4"/>
     </row>
     <row r="27" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
@@ -5723,9 +5719,9 @@
       <c r="BP27" s="4"/>
     </row>
     <row r="28" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
@@ -5794,9 +5790,9 @@
       <c r="BP28" s="4"/>
     </row>
     <row r="29" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -5863,9 +5859,9 @@
       <c r="BP29" s="3"/>
     </row>
     <row r="30" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
@@ -5934,9 +5930,9 @@
       <c r="BP30" s="4"/>
     </row>
     <row r="31" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
@@ -6005,9 +6001,9 @@
       <c r="BP31" s="4"/>
     </row>
     <row r="32" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
@@ -6076,9 +6072,9 @@
       <c r="BP32" s="4"/>
     </row>
     <row r="33" spans="2:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="16"/>
@@ -6189,7 +6185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -6201,13 +6197,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="42" customWidth="1"/>
-    <col min="2" max="2" width="88.25" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="10.75" style="42"/>
+    <col min="1" max="1" width="3.25" style="40" customWidth="1"/>
+    <col min="2" max="2" width="88.25" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="10.75" style="40"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Gant_Chart_Assessment_2_Group_1.xlsx
+++ b/Gant_Chart_Assessment_2_Group_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathryna.turi\Documents\GitHub\MANAGING-SOFTWARE-DEVELOPMENT-ISYS2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3D7CE-137A-42D0-B8C2-0E262B0B06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF388D24-DCDF-4D1C-A8B7-22188FAEFED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Gant_Chart_Assessment_2_Group_1.xlsx
+++ b/Gant_Chart_Assessment_2_Group_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathryna.turi\Documents\GitHub\MANAGING-SOFTWARE-DEVELOPMENT-ISYS2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virginia.whemby\Documents\GitHub\MANAGING-SOFTWARE-DEVELOPMENT-ISYS2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF388D24-DCDF-4D1C-A8B7-22188FAEFED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E44E2-1DD2-4358-8C7E-93710A4C6286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,9 +1019,9 @@
   </sheetPr>
   <dimension ref="B1:BP35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35:AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1744,12 +1744,14 @@
         <v>65</v>
       </c>
       <c r="E11" s="15">
-        <v>44635</v>
-      </c>
-      <c r="F11" s="15"/>
+        <v>45538</v>
+      </c>
+      <c r="F11" s="15">
+        <v>45540</v>
+      </c>
       <c r="G11" s="16">
         <f>_xlfn.DAYS(F11,E11)</f>
-        <v>-44635</v>
+        <v>2</v>
       </c>
       <c r="H11" s="17">
         <v>1</v>
@@ -1826,14 +1828,14 @@
         <v>66</v>
       </c>
       <c r="E12" s="15">
-        <v>44635</v>
+        <v>45538</v>
       </c>
       <c r="F12" s="15">
-        <v>44641</v>
+        <v>45540</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ref="G12:G33" si="0">_xlfn.DAYS(F12,E12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12" s="17">
         <v>0.9</v>
@@ -1910,14 +1912,14 @@
         <v>68</v>
       </c>
       <c r="E13" s="15">
-        <v>44636</v>
+        <v>45539</v>
       </c>
       <c r="F13" s="15">
-        <v>44642</v>
+        <v>45540</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H13" s="17">
         <v>0.4</v>
@@ -1994,14 +1996,14 @@
         <v>67</v>
       </c>
       <c r="E14" s="15">
-        <v>44637</v>
+        <v>45539</v>
       </c>
       <c r="F14" s="15">
-        <v>44642</v>
+        <v>45540</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="17">
         <v>0.7</v>
@@ -2078,14 +2080,14 @@
         <v>68</v>
       </c>
       <c r="E15" s="15">
-        <v>44638</v>
+        <v>45540</v>
       </c>
       <c r="F15" s="15">
-        <v>44642</v>
+        <v>45541</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="17">
         <v>0.6</v>
@@ -2162,14 +2164,14 @@
         <v>65</v>
       </c>
       <c r="E16" s="15">
-        <v>44643</v>
+        <v>45541</v>
       </c>
       <c r="F16" s="15">
-        <v>44643</v>
+        <v>45544</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="17">
         <v>0.5</v>
@@ -2319,14 +2321,14 @@
         <v>66</v>
       </c>
       <c r="E18" s="15">
-        <v>44644</v>
+        <v>45541</v>
       </c>
       <c r="F18" s="15">
-        <v>44648</v>
+        <v>45542</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" s="17">
         <v>0.05</v>
@@ -2403,14 +2405,14 @@
         <v>67</v>
       </c>
       <c r="E19" s="15">
-        <v>44649</v>
+        <v>45541</v>
       </c>
       <c r="F19" s="15">
-        <v>44653</v>
+        <v>45543</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="17">
         <v>0.3</v>
@@ -2486,14 +2488,18 @@
       <c r="D20" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="15">
+        <v>45542</v>
+      </c>
+      <c r="F20" s="15">
+        <v>45543</v>
+      </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2566,14 +2572,18 @@
       <c r="D21" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="15">
+        <v>45543</v>
+      </c>
+      <c r="F21" s="15">
+        <v>45545</v>
+      </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="17">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -2719,14 +2729,18 @@
       <c r="D23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="15">
+        <v>45546</v>
+      </c>
+      <c r="F23" s="15">
+        <v>45549</v>
+      </c>
       <c r="G23" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2799,14 +2813,18 @@
       <c r="D24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="15">
+        <v>45546</v>
+      </c>
+      <c r="F24" s="15">
+        <v>45548</v>
+      </c>
       <c r="G24" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2879,14 +2897,18 @@
       <c r="D25" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="15">
+        <v>45547</v>
+      </c>
+      <c r="F25" s="15">
+        <v>45548</v>
+      </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2959,14 +2981,18 @@
       <c r="D26" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="15">
+        <v>45548</v>
+      </c>
+      <c r="F26" s="15">
+        <v>45549</v>
+      </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -3039,14 +3065,18 @@
       <c r="D27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="15">
+        <v>45549</v>
+      </c>
+      <c r="F27" s="15">
+        <v>45550</v>
+      </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -3119,14 +3149,18 @@
       <c r="D28" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="15">
+        <v>45550</v>
+      </c>
+      <c r="F28" s="15">
+        <v>45551</v>
+      </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3272,14 +3306,18 @@
       <c r="D30" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="15">
+        <v>45551</v>
+      </c>
+      <c r="F30" s="15">
+        <v>45552</v>
+      </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3352,14 +3390,18 @@
       <c r="D31" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="15">
+        <v>45552</v>
+      </c>
+      <c r="F31" s="15">
+        <v>45554</v>
+      </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3432,14 +3474,18 @@
       <c r="D32" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="15">
+        <v>45552</v>
+      </c>
+      <c r="F32" s="15">
+        <v>45554</v>
+      </c>
       <c r="G32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3512,14 +3558,18 @@
       <c r="D33" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="15">
+        <v>45552</v>
+      </c>
+      <c r="F33" s="15">
+        <v>45555</v>
+      </c>
       <c r="G33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
